--- a/vaccine.web/vaccine.web/clientapps/public/ActivityExample.xlsx
+++ b/vaccine.web/vaccine.web/clientapps/public/ActivityExample.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Owner\source\repos\micchang-hkxf\vaccine.web\vaccine.web\vaccine.web\clientapps\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="598" uniqueCount="509">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="508">
   <si>
     <t>場次標題</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1544,10 +1544,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新冠肺炎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>title003</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1580,10 +1576,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新冠-BNT</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>長庚醫療財團法人台北長庚紀念醫院</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1600,6 +1592,9 @@
   <si>
     <t>說明: 日期與時間相關欄位的儲存格格式, 請使用"文字"類型</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>流感</t>
   </si>
 </sst>
 </file>
@@ -2570,7 +2565,7 @@
   <dimension ref="A1:M2077"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
@@ -2591,7 +2586,7 @@
   <sheetData>
     <row r="1" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="8" customFormat="1" ht="81" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2641,7 +2636,7 @@
         <v>15</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>14</v>
@@ -2694,10 +2689,10 @@
         <v>21</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="I5" s="4" t="s">
         <v>19</v>
@@ -2706,7 +2701,7 @@
         <v>20</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="L5">
         <v>500</v>
@@ -2732,10 +2727,10 @@
         <v>22</v>
       </c>
       <c r="G6" t="s">
+        <v>502</v>
+      </c>
+      <c r="H6" s="4" t="s">
         <v>504</v>
-      </c>
-      <c r="H6" s="4" t="s">
-        <v>506</v>
       </c>
       <c r="I6" s="4" t="s">
         <v>19</v>
@@ -2744,7 +2739,7 @@
         <v>20</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="L6">
         <v>1500</v>
@@ -2755,13 +2750,10 @@
     </row>
     <row r="7" spans="1:13" ht="17.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
+        <v>507</v>
+      </c>
+      <c r="C7" s="5" t="s">
         <v>493</v>
-      </c>
-      <c r="B7" t="s">
-        <v>502</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>494</v>
       </c>
       <c r="D7" t="s">
         <v>23</v>
@@ -2770,22 +2762,22 @@
         <v>31</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="I7" s="4" t="s">
+        <v>498</v>
+      </c>
+      <c r="J7" s="4" t="s">
         <v>499</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="K7" s="4" t="s">
         <v>500</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>501</v>
       </c>
       <c r="L7">
         <v>1000</v>
